--- a/Notas y Asistencia/Reg_20252.xlsx
+++ b/Notas y Asistencia/Reg_20252.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A5295E-747A-4EF1-AED1-1ED6EFC0EF05}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Software Engeneer Carreer/Arquitectura de Software/Notas y Asistencia/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D6B5690-52A2-4B48-913C-DB20165C983C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-2" sheetId="1" r:id="rId1"/>
@@ -364,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,9 +436,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,28 +775,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="129" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +834,7 @@
         <v>45951</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -867,7 +872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -908,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -946,7 +951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -984,7 +989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1265,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +1621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1657,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I27">
         <v>1</v>
       </c>
@@ -1706,7 +1711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I28">
         <v>3</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I29">
         <v>2</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I30">
         <v>4</v>
       </c>
